--- a/references/codebook_cleaned.xlsx
+++ b/references/codebook_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ye025/Documents/GitHub/face_mask_predictors/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EDFDF4-555D-4E48-A217-9279E337EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF78CCC-FC94-4541-BB86-97A5A28CCC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="500" windowWidth="14860" windowHeight="17500" xr2:uid="{372056D1-345B-3040-BFBE-89760B6372BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="109">
   <si>
     <t>d1_health_1</t>
   </si>
@@ -308,6 +308,9 @@
     <t>Nearly every day</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>PHQ4_2</t>
   </si>
   <si>
@@ -324,6 +327,42 @@
   </si>
   <si>
     <t>Not being able to stop or control worrying</t>
+  </si>
+  <si>
+    <t>Very willing</t>
+  </si>
+  <si>
+    <t>Very unwilling</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>i2_health</t>
+  </si>
+  <si>
+    <t>Not including those people in your household, about how many people have you come into physical contact with (within 2 meters / 6 feet)?</t>
+  </si>
+  <si>
+    <t>i9_health</t>
+  </si>
+  <si>
+    <t>Thinking about the next 7 days… would you isolate yourself after feeling unwell or having any of the following new symptoms: a dry cough, fever, loss of sense of smell, loss of sense of taste, shortness of breath or difficulty breathing?</t>
+  </si>
+  <si>
+    <t>i11_health</t>
+  </si>
+  <si>
+    <t>If you were advised to do so by a healthcare professional or public health authority to what extent are you willing or not to self-isolate for 7 days?</t>
+  </si>
+  <si>
+    <t>Somewhat willing</t>
+  </si>
+  <si>
+    <t>Neither willing nor unwilling</t>
+  </si>
+  <si>
+    <t>Somewhat unwilling</t>
   </si>
 </sst>
 </file>
@@ -534,7 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,6 +625,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -916,17 +967,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A3D4C-4268-9840-BD25-D7EC665C5680}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -938,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickTop="1">
+    <row r="3" spans="1:3" ht="170" thickTop="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -946,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -958,2027 +1009,2267 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:3" ht="17" thickBot="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" ht="17" thickTop="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="273" thickTop="1">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" thickTop="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" thickTop="1">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" thickTop="1"/>
-    <row r="17" spans="1:3" ht="17" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" thickTop="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" ht="17" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" thickTop="1">
-      <c r="A19" s="5" t="s">
+    <row r="18" spans="1:3" ht="170" thickTop="1">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>17</v>
+      <c r="C18" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26">
+      <c r="A23" s="8"/>
+      <c r="B23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="26">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" thickBot="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" thickTop="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" ht="17" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" thickTop="1">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+    <row r="34" spans="1:3" ht="17" thickBot="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" thickTop="1"/>
-    <row r="25" spans="1:3" ht="17" thickBot="1">
-      <c r="A25" s="1" t="s">
+    <row r="35" spans="1:3" ht="17" thickTop="1">
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3" ht="17" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" thickTop="1">
+      <c r="A38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" thickBot="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" thickTop="1"/>
+    <row r="44" spans="1:3" ht="17" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" thickTop="1">
+      <c r="A46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" thickBot="1">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" thickTop="1"/>
+    <row r="52" spans="1:3" ht="17" thickBot="1">
+      <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27" thickTop="1">
-      <c r="A27" s="5" t="s">
+    <row r="54" spans="1:3" ht="27" thickTop="1">
+      <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" thickBot="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
+    <row r="58" spans="1:3" ht="17" thickBot="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" thickTop="1"/>
-    <row r="33" spans="1:3" ht="17" thickBot="1">
-      <c r="A33" s="1" t="s">
+    <row r="59" spans="1:3" ht="17" thickTop="1"/>
+    <row r="60" spans="1:3" ht="17" thickBot="1">
+      <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="66" thickTop="1">
-      <c r="A35" s="5" t="s">
+    <row r="62" spans="1:3" ht="66" thickTop="1">
+      <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" thickBot="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13" t="s">
+    <row r="66" spans="1:3" ht="17" thickBot="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" thickTop="1"/>
-    <row r="41" spans="1:3" ht="17" thickBot="1">
-      <c r="A41" s="1" t="s">
+    <row r="67" spans="1:3" ht="17" thickTop="1"/>
+    <row r="68" spans="1:3" ht="17" thickBot="1">
+      <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" thickTop="1">
-      <c r="A43" s="5" t="s">
+    <row r="70" spans="1:3" ht="17" thickTop="1">
+      <c r="A70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" thickBot="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13" t="s">
+    <row r="74" spans="1:3" ht="17" thickBot="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" thickTop="1"/>
-    <row r="49" spans="1:3" ht="17" thickBot="1">
-      <c r="A49" s="1" t="s">
+    <row r="75" spans="1:3" ht="17" thickTop="1"/>
+    <row r="76" spans="1:3" ht="17" thickBot="1">
+      <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" thickTop="1">
-      <c r="A51" s="5" t="s">
+    <row r="78" spans="1:3" ht="17" thickTop="1">
+      <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" thickBot="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13" t="s">
+    <row r="82" spans="1:3" ht="17" thickBot="1">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" thickTop="1"/>
-    <row r="57" spans="1:3" ht="17" thickBot="1">
-      <c r="A57" s="1" t="s">
+    <row r="83" spans="1:3" ht="17" thickTop="1"/>
+    <row r="84" spans="1:3" ht="17" thickBot="1">
+      <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" thickTop="1">
-      <c r="A59" s="5" t="s">
+    <row r="86" spans="1:3" ht="17" thickTop="1">
+      <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="8" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B89" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17" thickBot="1">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13" t="s">
+    <row r="90" spans="1:3" ht="17" thickBot="1">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" thickTop="1"/>
-    <row r="65" spans="1:3" ht="17" thickBot="1">
-      <c r="A65" s="1" t="s">
+    <row r="91" spans="1:3" ht="17" thickTop="1"/>
+    <row r="92" spans="1:3" ht="17" thickBot="1">
+      <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4" t="s">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="27" thickTop="1">
-      <c r="A67" s="5" t="s">
+    <row r="94" spans="1:3" ht="27" thickTop="1">
+      <c r="A94" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="8" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" thickBot="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13" t="s">
+    <row r="98" spans="1:3" ht="17" thickBot="1">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C98" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" thickTop="1"/>
-    <row r="73" spans="1:3" ht="17" thickBot="1">
-      <c r="A73" s="1" t="s">
+    <row r="99" spans="1:3" ht="17" thickTop="1"/>
+    <row r="100" spans="1:3" ht="17" thickBot="1">
+      <c r="A100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="27" thickTop="1">
-      <c r="A75" s="5" t="s">
+    <row r="102" spans="1:3" ht="27" thickTop="1">
+      <c r="A102" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="8" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B105" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" thickBot="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13" t="s">
+    <row r="106" spans="1:3" ht="17" thickBot="1">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" thickTop="1"/>
-    <row r="81" spans="1:3" ht="17" thickBot="1">
-      <c r="A81" s="1" t="s">
+    <row r="107" spans="1:3" ht="17" thickTop="1"/>
+    <row r="108" spans="1:3" ht="17" thickBot="1">
+      <c r="A108" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="4" t="s">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" thickTop="1">
-      <c r="A83" s="5" t="s">
+    <row r="110" spans="1:3" ht="17" thickTop="1">
+      <c r="A110" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B110" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="8"/>
+      <c r="B111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="8"/>
+      <c r="B112" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="8" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B113" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17" thickBot="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13" t="s">
+    <row r="114" spans="1:3" ht="17" thickBot="1">
+      <c r="A114" s="12"/>
+      <c r="B114" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" thickTop="1"/>
-    <row r="89" spans="1:3" ht="17" thickBot="1">
-      <c r="A89" s="1" t="s">
+    <row r="115" spans="1:3" ht="17" thickTop="1"/>
+    <row r="116" spans="1:3" ht="17" thickBot="1">
+      <c r="A116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4" t="s">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="27" thickTop="1">
-      <c r="A91" s="5" t="s">
+    <row r="118" spans="1:3" ht="27" thickTop="1">
+      <c r="A118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="8" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B121" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17" thickBot="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13" t="s">
+    <row r="122" spans="1:3" ht="17" thickBot="1">
+      <c r="A122" s="12"/>
+      <c r="B122" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17" thickTop="1"/>
-    <row r="97" spans="1:3" ht="17" thickBot="1">
-      <c r="A97" s="1" t="s">
+    <row r="123" spans="1:3" ht="17" thickTop="1"/>
+    <row r="124" spans="1:3" ht="17" thickBot="1">
+      <c r="A124" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4" t="s">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="27" thickTop="1">
-      <c r="A99" s="5" t="s">
+    <row r="126" spans="1:3" ht="27" thickTop="1">
+      <c r="A126" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="8"/>
-      <c r="B100" s="9" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="9" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="8" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17" thickBot="1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13" t="s">
+    <row r="130" spans="1:3" ht="17" thickBot="1">
+      <c r="A130" s="12"/>
+      <c r="B130" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C130" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17" thickTop="1"/>
-    <row r="105" spans="1:3" ht="17" thickBot="1">
-      <c r="A105" s="1" t="s">
+    <row r="131" spans="1:3" ht="17" thickTop="1"/>
+    <row r="132" spans="1:3" ht="17" thickBot="1">
+      <c r="A132" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4" t="s">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="27" thickTop="1">
-      <c r="A107" s="5" t="s">
+    <row r="134" spans="1:3" ht="27" thickTop="1">
+      <c r="A134" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="8"/>
+      <c r="B136" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="8" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17" thickBot="1">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13" t="s">
+    <row r="138" spans="1:3" ht="17" thickBot="1">
+      <c r="A138" s="12"/>
+      <c r="B138" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C138" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17" thickTop="1"/>
-    <row r="113" spans="1:3" ht="17" thickBot="1">
-      <c r="A113" s="1" t="s">
+    <row r="139" spans="1:3" ht="17" thickTop="1"/>
+    <row r="140" spans="1:3" ht="17" thickBot="1">
+      <c r="A140" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="4" t="s">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17" thickTop="1">
-      <c r="A115" s="5" t="s">
+    <row r="142" spans="1:3" ht="17" thickTop="1">
+      <c r="A142" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B142" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C142" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" thickBot="1">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" thickTop="1"/>
-    <row r="121" spans="1:3" ht="17" thickBot="1">
-      <c r="A121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="27" thickTop="1">
-      <c r="A123" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" thickBot="1">
-      <c r="A125" s="12"/>
-      <c r="B125" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" thickTop="1"/>
-    <row r="127" spans="1:3" ht="17" thickBot="1">
-      <c r="A127" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" thickTop="1">
-      <c r="A129" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="17" thickBot="1">
-      <c r="A133" s="12"/>
-      <c r="B133" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="17" thickTop="1"/>
-    <row r="135" spans="1:3" ht="17" thickBot="1">
-      <c r="A135" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="40" thickTop="1">
-      <c r="A137" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="8"/>
-      <c r="B141" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="8"/>
-      <c r="B142" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="8"/>
-      <c r="B143" s="11" t="s">
-        <v>52</v>
+      <c r="B143" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="8"/>
-      <c r="B144" s="11" t="s">
-        <v>53</v>
+      <c r="B144" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="8"/>
+      <c r="A145" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="B145" s="11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="8"/>
-      <c r="B146" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="17" thickBot="1">
-      <c r="A147" s="8"/>
-      <c r="B147" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="17" thickTop="1"/>
-    <row r="149" spans="1:3" ht="17" thickBot="1">
-      <c r="A149" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A150" s="2"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="17" thickBot="1">
+      <c r="A146" s="12"/>
+      <c r="B146" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="17" thickTop="1"/>
+    <row r="148" spans="1:3" ht="17" thickBot="1">
+      <c r="A148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A149" s="2"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="27" thickTop="1">
-      <c r="A151" s="5" t="s">
+    <row r="150" spans="1:3" ht="27" thickTop="1">
+      <c r="A150" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B150" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="8"/>
-      <c r="B152" s="9" t="s">
+      <c r="C150" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C151" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="8"/>
-      <c r="B153" s="9" t="s">
+    <row r="152" spans="1:3" ht="17" thickBot="1">
+      <c r="A152" s="12"/>
+      <c r="B152" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C152" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="26">
-      <c r="A154" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="26">
-      <c r="A155" s="8"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="8"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="10" t="s">
-        <v>66</v>
+    <row r="153" spans="1:3" ht="17" thickTop="1"/>
+    <row r="154" spans="1:3" ht="17" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="17" thickTop="1">
+      <c r="A156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8"/>
-      <c r="B157" s="11"/>
+      <c r="B157" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C157" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="17" thickBot="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="8"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="17" thickTop="1"/>
+      <c r="B158" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="160" spans="1:3" ht="17" thickBot="1">
-      <c r="A160" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A161" s="2"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4" t="s">
+      <c r="A160" s="12"/>
+      <c r="B160" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="17" thickTop="1"/>
+    <row r="162" spans="1:3" ht="17" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A163" s="2"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="131" thickTop="1">
-      <c r="A162" s="5" t="s">
+    <row r="164" spans="1:3" ht="40" thickTop="1">
+      <c r="A164" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9" t="s">
+      <c r="C164" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="8"/>
+      <c r="B165" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="8"/>
-      <c r="B164" s="9" t="s">
+    <row r="166" spans="1:3">
+      <c r="A166" s="8"/>
+      <c r="B166" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C166" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="26">
-      <c r="A165" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B165" s="11" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="26">
-      <c r="A166" s="8"/>
-      <c r="B166" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="39">
-      <c r="A167" s="8"/>
-      <c r="B167" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="C167" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="8"/>
       <c r="B168" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="8"/>
+      <c r="B169" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="8"/>
+      <c r="B170" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="17" thickBot="1">
-      <c r="A169" s="12"/>
-      <c r="B169" s="13" t="s">
+      <c r="C170" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="8"/>
+      <c r="B171" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="17" thickTop="1"/>
-    <row r="171" spans="1:3" ht="17" thickBot="1">
-      <c r="A171" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A172" s="2"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="4" t="s">
+      <c r="C171" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="8"/>
+      <c r="B172" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="8"/>
+      <c r="B173" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="17" thickBot="1">
+      <c r="A174" s="8"/>
+      <c r="B174" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="17" thickTop="1"/>
+    <row r="176" spans="1:3" ht="17" thickBot="1">
+      <c r="A176" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A177" s="2"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="157" thickTop="1">
-      <c r="A173" s="5" t="s">
+    <row r="178" spans="1:3" ht="27" thickTop="1">
+      <c r="A178" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B178" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="8"/>
-      <c r="B174" s="9" t="s">
+      <c r="C178" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="8"/>
+      <c r="B179" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C179" s="10" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="78">
-      <c r="A176" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="78">
-      <c r="A177" s="8"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="78">
-      <c r="A178" s="8"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="78">
-      <c r="A179" s="8"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="8"/>
-      <c r="B180" s="11"/>
+      <c r="B180" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C180" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="79" thickBot="1">
-      <c r="A181" s="12"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="17" thickTop="1"/>
-    <row r="183" spans="1:3" ht="17" thickBot="1">
-      <c r="A183" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A184" s="2"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="26">
+      <c r="A181" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="11"/>
+      <c r="C181" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="26">
+      <c r="A182" s="8"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="8"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="8"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17" thickBot="1">
+      <c r="A185" s="8"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="17" thickTop="1"/>
+    <row r="187" spans="1:3" ht="17" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A188" s="2"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="297" thickTop="1">
-      <c r="A185" s="5" t="s">
+    <row r="189" spans="1:3" ht="131" thickTop="1">
+      <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B189" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="8"/>
-      <c r="B189" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>58</v>
+      <c r="C189" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="8"/>
-      <c r="B190" s="10" t="s">
-        <v>56</v>
+      <c r="B190" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="8"/>
-      <c r="B191" s="10" t="s">
-        <v>55</v>
+      <c r="B191" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="10" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="26">
+      <c r="A192" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="26">
       <c r="A193" s="8"/>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="39">
+      <c r="A194" s="8"/>
+      <c r="B194" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="39">
+      <c r="A195" s="8"/>
+      <c r="B195" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17" thickBot="1">
+      <c r="A196" s="12"/>
+      <c r="B196" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C193" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="8"/>
-      <c r="B195" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="8"/>
-      <c r="B196" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="8"/>
-      <c r="B197" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="C196" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="17" thickTop="1"/>
     <row r="198" spans="1:3" ht="17" thickBot="1">
-      <c r="A198" s="12"/>
-      <c r="B198" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="17" thickTop="1"/>
-    <row r="200" spans="1:3" ht="17" thickBot="1">
-      <c r="A200" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="4" t="s">
+      <c r="A198" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A199" s="2"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="40" thickTop="1">
-      <c r="A202" s="5" t="s">
+    <row r="200" spans="1:3" ht="157" thickTop="1">
+      <c r="A200" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B200" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="9" t="s">
+      <c r="C200" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="8"/>
+      <c r="B201" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C201" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="8"/>
+      <c r="B202" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="78">
+      <c r="A203" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="11"/>
       <c r="C203" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="78">
+      <c r="A204" s="8"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="78">
+      <c r="A205" s="8"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="78">
+      <c r="A206" s="8"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="8"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="79" thickBot="1">
+      <c r="A208" s="12"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="17" thickTop="1"/>
+    <row r="210" spans="1:3" ht="17" thickBot="1">
+      <c r="A210" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A211" s="2"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="297" thickTop="1">
+      <c r="A212" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="8"/>
+      <c r="B213" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="10" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="8"/>
-      <c r="B204" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="26">
-      <c r="A207" s="8"/>
-      <c r="B207" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="26">
-      <c r="A208" s="8"/>
-      <c r="B208" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="27" thickBot="1">
-      <c r="A209" s="12"/>
-      <c r="B209" s="13"/>
-      <c r="C209" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="17" thickTop="1"/>
-    <row r="211" spans="1:3" ht="17" thickBot="1">
-      <c r="A211" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A212" s="2"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="40" thickTop="1">
-      <c r="A213" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="8"/>
       <c r="B214" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="9" t="s">
-        <v>7</v>
+      <c r="A215" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>12</v>
+      <c r="A216" s="8"/>
+      <c r="B216" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="8"/>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="8"/>
+      <c r="B218" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="8"/>
+      <c r="B219" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="8"/>
+      <c r="B220" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="8"/>
+      <c r="B221" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="8"/>
+      <c r="B222" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="8"/>
+      <c r="B223" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C223" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="8"/>
+      <c r="B224" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="17" thickBot="1">
+      <c r="A225" s="12"/>
+      <c r="B225" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="17" thickTop="1"/>
+    <row r="227" spans="1:3" ht="17" thickBot="1">
+      <c r="A227" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A228" s="2"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="40" thickTop="1">
+      <c r="A229" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="8"/>
+      <c r="B230" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="8"/>
+      <c r="B231" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="8"/>
+      <c r="B233" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="26">
-      <c r="A218" s="8"/>
-      <c r="B218" s="11" t="s">
+    <row r="234" spans="1:3" ht="26">
+      <c r="A234" s="8"/>
+      <c r="B234" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C234" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="26">
-      <c r="A219" s="8"/>
-      <c r="B219" s="11" t="s">
+    <row r="235" spans="1:3" ht="26">
+      <c r="A235" s="8"/>
+      <c r="B235" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C235" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="27" thickBot="1">
-      <c r="A220" s="12"/>
-      <c r="B220" s="13"/>
-      <c r="C220" s="14" t="s">
+    <row r="236" spans="1:3" ht="27" thickBot="1">
+      <c r="A236" s="12"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17" thickTop="1"/>
-    <row r="222" spans="1:3" ht="17" thickBot="1">
-      <c r="A222" s="1" t="s">
+    <row r="237" spans="1:3" ht="17" thickTop="1"/>
+    <row r="238" spans="1:3" ht="17" thickBot="1">
+      <c r="A238" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A239" s="2"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="40" thickTop="1">
+      <c r="A240" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A223" s="2"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="4" t="s">
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="8"/>
+      <c r="B241" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="8"/>
+      <c r="B242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="8"/>
+      <c r="B244" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="26">
+      <c r="A245" s="8"/>
+      <c r="B245" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="26">
+      <c r="A246" s="8"/>
+      <c r="B246" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="27" thickBot="1">
+      <c r="A247" s="12"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="17" thickTop="1"/>
+    <row r="249" spans="1:3" ht="17" thickBot="1">
+      <c r="A249" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A250" s="2"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="53" thickTop="1">
-      <c r="A224" s="5" t="s">
+    <row r="251" spans="1:3" ht="53" thickTop="1">
+      <c r="A251" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B251" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="8"/>
-      <c r="B225" s="9" t="s">
+      <c r="C251" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="8"/>
+      <c r="B252" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C252" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="9" t="s">
+    <row r="253" spans="1:3">
+      <c r="A253" s="8"/>
+      <c r="B253" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C253" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="8" t="s">
+    <row r="254" spans="1:3">
+      <c r="A254" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B254" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C254" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="11" t="s">
+    <row r="255" spans="1:3">
+      <c r="A255" s="8"/>
+      <c r="B255" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="C255" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="26">
-      <c r="A229" s="8"/>
-      <c r="B229" s="11" t="s">
+    <row r="256" spans="1:3" ht="26">
+      <c r="A256" s="8"/>
+      <c r="B256" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C256" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="26">
-      <c r="A230" s="8"/>
-      <c r="B230" s="11" t="s">
+    <row r="257" spans="1:3" ht="26">
+      <c r="A257" s="8"/>
+      <c r="B257" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="C257" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="27" thickBot="1">
-      <c r="A231" s="12"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="14" t="s">
+    <row r="258" spans="1:3" ht="27" thickBot="1">
+      <c r="A258" s="12"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="17" thickTop="1"/>
-    <row r="233" spans="1:3" ht="17" thickBot="1">
-      <c r="A233" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A234" s="2"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="4" t="s">
+    <row r="259" spans="1:3" ht="17" thickTop="1"/>
+    <row r="260" spans="1:3" ht="17" thickBot="1">
+      <c r="A260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="53" thickTop="1">
-      <c r="A235" s="5" t="s">
+    <row r="262" spans="1:3" ht="53" thickTop="1">
+      <c r="A262" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B262" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="9" t="s">
+      <c r="C262" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="8"/>
+      <c r="B263" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="C263" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="8"/>
-      <c r="B237" s="9" t="s">
+    <row r="264" spans="1:3">
+      <c r="A264" s="8"/>
+      <c r="B264" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="C264" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="8" t="s">
+    <row r="265" spans="1:3">
+      <c r="A265" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B265" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C265" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="11" t="s">
+    <row r="266" spans="1:3">
+      <c r="A266" s="8"/>
+      <c r="B266" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C266" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="26">
-      <c r="A240" s="8"/>
-      <c r="B240" s="11" t="s">
+    <row r="267" spans="1:3" ht="26">
+      <c r="A267" s="8"/>
+      <c r="B267" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="C267" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="26">
-      <c r="A241" s="8"/>
-      <c r="B241" s="11" t="s">
+    <row r="268" spans="1:3" ht="26">
+      <c r="A268" s="8"/>
+      <c r="B268" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C268" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="27" thickBot="1">
-      <c r="A242" s="12"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="14" t="s">
+    <row r="269" spans="1:3" ht="27" thickBot="1">
+      <c r="A269" s="12"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="17" thickTop="1"/>
+    <row r="270" spans="1:3" ht="17" thickTop="1"/>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A227:A231"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A198"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="114">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="A254:A258"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="A265:A269"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A225"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
